--- a/public/sample-format/roaming-rates-excel.xlsx
+++ b/public/sample-format/roaming-rates-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B28650E3-A47E-4EAF-9BA1-F5EB285E02A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931B7D9-C4DD-4CE4-8631-30AD896951FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2F76A13-67A3-49B6-9C84-3C61F81F34AD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="174">
   <si>
     <t>Subscription Type</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Asia</t>
   </si>
   <si>
-    <t>Prepaid</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -94,22 +91,472 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Afghan Wireless Communication</t>
-  </si>
-  <si>
-    <t>Movicel</t>
-  </si>
-  <si>
-    <t>Cable and Wireless</t>
-  </si>
-  <si>
-    <t>T-Mobile</t>
-  </si>
-  <si>
-    <t>Vodafone Netherlands</t>
-  </si>
-  <si>
-    <t>Postpaid</t>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India    </t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo, DR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French West Indies</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Lao P.D.R.</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa </t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>St Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>St.Vincent</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -481,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCDA461-31F6-4AA4-A277-BB2A4CEC9C99}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,22 +981,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0.30357200000000001</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0.30357200000000001</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -560,22 +1007,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0.30357200000000001</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0.30357200000000001</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -586,126 +1033,126 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>0.45535799999999998</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>0.60714299999999999</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.60714299999999999</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>0.60714299999999999</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.60714299999999999</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -716,74 +1163,3948 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0.379465</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>0.379465</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0.27321499999999999</v>
-      </c>
       <c r="F10">
-        <v>0.27321499999999999</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>7.5893000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>6.78E-4</v>
+        <v>4.8828125E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>0.27321499999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.27321499999999999</v>
-      </c>
-      <c r="G11">
-        <v>7.5893000000000002E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.78E-4</v>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>100</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="F104">
+        <v>100</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+      <c r="H109">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>100</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+      <c r="H123">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+      <c r="F130">
+        <v>100</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>100</v>
+      </c>
+      <c r="F133">
+        <v>100</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>100</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="H137">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139">
+        <v>100</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>100</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144">
+        <v>100</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <v>100</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147">
+        <v>100</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151">
+        <v>100</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153">
+        <v>100</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154">
+        <v>100</v>
+      </c>
+      <c r="F154">
+        <v>100</v>
+      </c>
+      <c r="G154">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155">
+        <v>100</v>
+      </c>
+      <c r="F155">
+        <v>100</v>
+      </c>
+      <c r="G155">
+        <v>5</v>
+      </c>
+      <c r="H155">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>77</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157">
+        <v>100</v>
+      </c>
+      <c r="G157">
+        <v>5</v>
+      </c>
+      <c r="H157">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158">
+        <v>100</v>
+      </c>
+      <c r="G158">
+        <v>5</v>
+      </c>
+      <c r="H158">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159">
+        <v>100</v>
+      </c>
+      <c r="F159">
+        <v>100</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>4.8828125E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>4.8828125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample-format/roaming-rates-excel.xlsx
+++ b/public/sample-format/roaming-rates-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931B7D9-C4DD-4CE4-8631-30AD896951FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFDB405-A5FE-4530-AF92-48074ADC2B1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2F76A13-67A3-49B6-9C84-3C61F81F34AD}"/>
   </bookViews>
@@ -57,506 +57,506 @@
 Outgoing</t>
   </si>
   <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India    </t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo, DR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French West Indies</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Lao P.D.R.</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa </t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>St Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>St.Vincent</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>GPRS 
-(10 KB pulse)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India    </t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo, DR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French West Indies</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Lao P.D.R.</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa </t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>St Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>St.Vincent</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+(MB)</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCDA461-31F6-4AA4-A277-BB2A4CEC9C99}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,22 +969,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -996,21 +996,21 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1022,21 +1022,21 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1048,21 +1048,21 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -1074,21 +1074,21 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1100,21 +1100,21 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -1126,21 +1126,21 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -1152,21 +1152,21 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -1178,21 +1178,21 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -1204,21 +1204,21 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>18</v>
@@ -1230,21 +1230,21 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -1256,21 +1256,21 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -1282,21 +1282,21 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -1308,21 +1308,21 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>55</v>
@@ -1334,21 +1334,21 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>55</v>
@@ -1360,21 +1360,21 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>55</v>
@@ -1386,21 +1386,21 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>55</v>
@@ -1412,21 +1412,21 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>55</v>
@@ -1438,21 +1438,21 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1464,21 +1464,21 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>55</v>
@@ -1490,21 +1490,21 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>55</v>
@@ -1516,21 +1516,21 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>55</v>
@@ -1542,21 +1542,21 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>55</v>
@@ -1568,21 +1568,21 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>55</v>
@@ -1594,21 +1594,21 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>55</v>
@@ -1620,21 +1620,21 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -1646,21 +1646,21 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1672,21 +1672,21 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -1698,21 +1698,21 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -1724,21 +1724,21 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -1750,21 +1750,21 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -1776,21 +1776,21 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -1802,21 +1802,21 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -1828,21 +1828,21 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -1854,21 +1854,21 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -1880,21 +1880,21 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1906,21 +1906,21 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -1932,21 +1932,21 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -1958,21 +1958,21 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -1984,21 +1984,21 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -2010,21 +2010,21 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -2036,21 +2036,21 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -2062,21 +2062,21 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -2088,21 +2088,21 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -2114,21 +2114,21 @@
         <v>5</v>
       </c>
       <c r="H45">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -2140,21 +2140,21 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -2166,21 +2166,21 @@
         <v>5</v>
       </c>
       <c r="H47">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -2192,21 +2192,21 @@
         <v>5</v>
       </c>
       <c r="H48">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -2218,21 +2218,21 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -2244,21 +2244,21 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -2270,21 +2270,21 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2296,21 +2296,21 @@
         <v>5</v>
       </c>
       <c r="H52">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -2322,21 +2322,21 @@
         <v>5</v>
       </c>
       <c r="H53">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -2348,21 +2348,21 @@
         <v>5</v>
       </c>
       <c r="H54">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -2374,21 +2374,21 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -2400,21 +2400,21 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -2426,21 +2426,21 @@
         <v>5</v>
       </c>
       <c r="H57">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -2452,21 +2452,21 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -2478,21 +2478,21 @@
         <v>5</v>
       </c>
       <c r="H59">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -2504,21 +2504,21 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -2530,21 +2530,21 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -2556,21 +2556,21 @@
         <v>5</v>
       </c>
       <c r="H62">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -2582,21 +2582,21 @@
         <v>5</v>
       </c>
       <c r="H63">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
         <v>77</v>
       </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -2608,21 +2608,21 @@
         <v>5</v>
       </c>
       <c r="H64">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -2634,21 +2634,21 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -2660,21 +2660,21 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -2686,21 +2686,21 @@
         <v>5</v>
       </c>
       <c r="H67">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -2712,21 +2712,21 @@
         <v>5</v>
       </c>
       <c r="H68">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -2738,21 +2738,21 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -2764,21 +2764,21 @@
         <v>5</v>
       </c>
       <c r="H70">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -2790,21 +2790,21 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -2816,21 +2816,21 @@
         <v>5</v>
       </c>
       <c r="H72">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -2842,21 +2842,21 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -2868,21 +2868,21 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -2894,21 +2894,21 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -2920,21 +2920,21 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -2946,21 +2946,21 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -2972,21 +2972,21 @@
         <v>5</v>
       </c>
       <c r="H78">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -2998,21 +2998,21 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -3024,21 +3024,21 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3050,21 +3050,21 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -3076,21 +3076,21 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -3102,21 +3102,21 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -3128,21 +3128,21 @@
         <v>5</v>
       </c>
       <c r="H84">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -3154,21 +3154,21 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -3180,21 +3180,21 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -3206,21 +3206,21 @@
         <v>5</v>
       </c>
       <c r="H87">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -3232,21 +3232,21 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -3258,21 +3258,21 @@
         <v>5</v>
       </c>
       <c r="H89">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -3284,21 +3284,21 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -3310,21 +3310,21 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -3336,21 +3336,21 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -3362,21 +3362,21 @@
         <v>5</v>
       </c>
       <c r="H93">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -3388,21 +3388,21 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -3414,21 +3414,21 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -3440,21 +3440,21 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -3466,21 +3466,21 @@
         <v>5</v>
       </c>
       <c r="H97">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -3492,21 +3492,21 @@
         <v>5</v>
       </c>
       <c r="H98">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -3518,21 +3518,21 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -3544,21 +3544,21 @@
         <v>5</v>
       </c>
       <c r="H100">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -3570,21 +3570,21 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -3596,21 +3596,21 @@
         <v>5</v>
       </c>
       <c r="H102">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -3622,21 +3622,21 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -3648,21 +3648,21 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -3674,21 +3674,21 @@
         <v>5</v>
       </c>
       <c r="H105">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -3700,21 +3700,21 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -3726,21 +3726,21 @@
         <v>5</v>
       </c>
       <c r="H107">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -3752,21 +3752,21 @@
         <v>5</v>
       </c>
       <c r="H108">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -3778,21 +3778,21 @@
         <v>5</v>
       </c>
       <c r="H109">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -3804,21 +3804,21 @@
         <v>5</v>
       </c>
       <c r="H110">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -3830,21 +3830,21 @@
         <v>5</v>
       </c>
       <c r="H111">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -3856,21 +3856,21 @@
         <v>5</v>
       </c>
       <c r="H112">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -3882,21 +3882,21 @@
         <v>5</v>
       </c>
       <c r="H113">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -3908,21 +3908,21 @@
         <v>5</v>
       </c>
       <c r="H114">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -3934,21 +3934,21 @@
         <v>5</v>
       </c>
       <c r="H115">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -3960,21 +3960,21 @@
         <v>5</v>
       </c>
       <c r="H116">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -3986,21 +3986,21 @@
         <v>5</v>
       </c>
       <c r="H117">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -4012,21 +4012,21 @@
         <v>5</v>
       </c>
       <c r="H118">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -4038,21 +4038,21 @@
         <v>5</v>
       </c>
       <c r="H119">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -4064,21 +4064,21 @@
         <v>5</v>
       </c>
       <c r="H120">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -4090,21 +4090,21 @@
         <v>5</v>
       </c>
       <c r="H121">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -4116,21 +4116,21 @@
         <v>5</v>
       </c>
       <c r="H122">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -4142,21 +4142,21 @@
         <v>5</v>
       </c>
       <c r="H123">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -4168,21 +4168,21 @@
         <v>5</v>
       </c>
       <c r="H124">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -4194,21 +4194,21 @@
         <v>5</v>
       </c>
       <c r="H125">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -4220,21 +4220,21 @@
         <v>5</v>
       </c>
       <c r="H126">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -4246,21 +4246,21 @@
         <v>5</v>
       </c>
       <c r="H127">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -4272,21 +4272,21 @@
         <v>5</v>
       </c>
       <c r="H128">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -4298,21 +4298,21 @@
         <v>5</v>
       </c>
       <c r="H129">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -4324,21 +4324,21 @@
         <v>5</v>
       </c>
       <c r="H130">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -4350,21 +4350,21 @@
         <v>5</v>
       </c>
       <c r="H131">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -4376,21 +4376,21 @@
         <v>5</v>
       </c>
       <c r="H132">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -4402,21 +4402,21 @@
         <v>5</v>
       </c>
       <c r="H133">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -4428,21 +4428,21 @@
         <v>5</v>
       </c>
       <c r="H134">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -4454,21 +4454,21 @@
         <v>5</v>
       </c>
       <c r="H135">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -4480,21 +4480,21 @@
         <v>5</v>
       </c>
       <c r="H136">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137">
         <v>100</v>
@@ -4506,21 +4506,21 @@
         <v>5</v>
       </c>
       <c r="H137">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138">
         <v>100</v>
@@ -4532,21 +4532,21 @@
         <v>5</v>
       </c>
       <c r="H138">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139">
         <v>100</v>
@@ -4558,21 +4558,21 @@
         <v>5</v>
       </c>
       <c r="H139">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140">
         <v>100</v>
@@ -4584,21 +4584,21 @@
         <v>5</v>
       </c>
       <c r="H140">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -4610,21 +4610,21 @@
         <v>5</v>
       </c>
       <c r="H141">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
         <v>100</v>
@@ -4636,21 +4636,21 @@
         <v>5</v>
       </c>
       <c r="H142">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>100</v>
@@ -4662,21 +4662,21 @@
         <v>5</v>
       </c>
       <c r="H143">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>100</v>
@@ -4688,21 +4688,21 @@
         <v>5</v>
       </c>
       <c r="H144">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
         <v>100</v>
@@ -4714,21 +4714,21 @@
         <v>5</v>
       </c>
       <c r="H145">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
         <v>8</v>
       </c>
-      <c r="B146" t="s">
-        <v>9</v>
-      </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146">
         <v>100</v>
@@ -4740,21 +4740,21 @@
         <v>5</v>
       </c>
       <c r="H146">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="B147" t="s">
-        <v>9</v>
-      </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -4766,21 +4766,21 @@
         <v>5</v>
       </c>
       <c r="H147">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E148">
         <v>100</v>
@@ -4792,21 +4792,21 @@
         <v>5</v>
       </c>
       <c r="H148">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>100</v>
@@ -4818,21 +4818,21 @@
         <v>5</v>
       </c>
       <c r="H149">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150">
         <v>100</v>
@@ -4844,21 +4844,21 @@
         <v>5</v>
       </c>
       <c r="H150">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -4870,21 +4870,21 @@
         <v>5</v>
       </c>
       <c r="H151">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
         <v>8</v>
       </c>
-      <c r="B152" t="s">
-        <v>9</v>
-      </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>100</v>
@@ -4896,21 +4896,21 @@
         <v>5</v>
       </c>
       <c r="H152">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
         <v>8</v>
       </c>
-      <c r="B153" t="s">
-        <v>9</v>
-      </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153">
         <v>100</v>
@@ -4922,21 +4922,21 @@
         <v>5</v>
       </c>
       <c r="H153">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154">
         <v>100</v>
@@ -4948,21 +4948,21 @@
         <v>5</v>
       </c>
       <c r="H154">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155">
         <v>100</v>
@@ -4974,21 +4974,21 @@
         <v>5</v>
       </c>
       <c r="H155">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156">
         <v>100</v>
@@ -5000,21 +5000,21 @@
         <v>5</v>
       </c>
       <c r="H156">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -5026,21 +5026,21 @@
         <v>5</v>
       </c>
       <c r="H157">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
         <v>8</v>
       </c>
-      <c r="B158" t="s">
-        <v>9</v>
-      </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158">
         <v>100</v>
@@ -5052,21 +5052,21 @@
         <v>5</v>
       </c>
       <c r="H158">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159">
         <v>100</v>
@@ -5078,21 +5078,21 @@
         <v>5</v>
       </c>
       <c r="H159">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160">
         <v>100</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="H160">
-        <v>4.8828125E-2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
